--- a/scripts/EPCThroughputTemplate.xlsx
+++ b/scripts/EPCThroughputTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>全网指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,15 +180,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>67.59%/14.12%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGI:7.77%/72.86% Gn：22.21%/38.50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统计日期：2018年07月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0%/0.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGI:0.00%/0.00% Gn：0.00%/0.00%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,6 +620,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,6 +650,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -649,6 +671,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -663,33 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +1000,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -1012,47 +1016,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="12" thickBot="1">
-      <c r="A2" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:7" s="15" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -1080,7 +1084,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1090,16 +1094,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1107,41 +1111,41 @@
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="43"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="43"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" thickBot="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
+      <c r="C9" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1174,14 +1178,14 @@
         <v>37</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="43"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1189,12 +1193,12 @@
         <v>4</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="43"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1202,12 +1206,12 @@
         <v>4</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="43"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1215,12 +1219,12 @@
         <v>36</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="43"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1228,12 +1232,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="43"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1243,18 +1247,18 @@
       <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="43"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="35"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="43"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1277,7 +1281,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1287,16 +1291,16 @@
         <v>4</v>
       </c>
       <c r="D19" s="17">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="E19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1304,14 +1308,14 @@
         <v>4</v>
       </c>
       <c r="D20" s="17">
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1319,14 +1323,14 @@
         <v>4</v>
       </c>
       <c r="D21" s="17">
-        <v>0.2024</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1334,14 +1338,14 @@
         <v>6</v>
       </c>
       <c r="D22" s="17">
-        <v>0.25280000000000002</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1349,14 +1353,14 @@
         <v>6</v>
       </c>
       <c r="D23" s="17">
-        <v>0.1057</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -1366,29 +1370,29 @@
       <c r="D24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="43"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="35"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="16">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="C25" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="A26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
